--- a/2-3-1 Практика Дата и время функции_сделанное.xlsx
+++ b/2-3-1 Практика Дата и время функции_сделанное.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\РАБОТА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\я\учеба\Simulative\Simulative BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5324817-37BA-4568-8535-FB46A2F777CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033C4DA6-1B4E-45CC-A3A9-A9174470CA5B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="4" xr2:uid="{BE275577-B430-4DCB-AA1E-9DF443D9D709}"/>
   </bookViews>
@@ -19,13 +19,7 @@
     <sheet name="Расход" sheetId="7" r:id="rId4"/>
     <sheet name="Калькулятор" sheetId="9" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Калькулятор!$F$8,Калькулятор!$F$12)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Калькулятор!$G$8,Калькулятор!$G$12)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Калькулятор!$F$8,Калькулятор!$F$12)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Калькулятор!$G$8,Калькулятор!$G$12)</definedName>
-  </definedNames>
-  <calcPr calcId="179021" calcCompleted="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Бюджет</t>
   </si>
@@ -107,7 +101,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="mmmm"/>
-    <numFmt numFmtId="168" formatCode="[$-419]mmmm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-419]mmmm;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -301,7 +295,7 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -332,6 +326,930 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Калькулятор бюджета</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Калькулятор!$F$8,Калькулятор!$F$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>% дней по месяцу:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% расхода от бюджета:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Калькулятор!$G$8,Калькулятор!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67305665388669222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96EE-417B-AB33-C27B320DCF28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="446555808"/>
+        <c:axId val="488951440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="446555808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488951440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="488951440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="10800000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446555808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="339">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3049,6 +3967,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBBB24F-2725-4A84-A54E-E5E804F985E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3510,7 +4464,7 @@
   <dimension ref="A3:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,7 +4477,7 @@
     <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
@@ -3531,7 +4485,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>3</v>
       </c>
@@ -3539,7 +4496,10 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>4</v>
       </c>
@@ -3547,7 +4507,10 @@
         <v>426326</v>
       </c>
     </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
@@ -3555,7 +4518,10 @@
         <v>433045</v>
       </c>
     </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
@@ -3563,7 +4529,10 @@
         <v>442470</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3571,7 +4540,10 @@
         <v>474321</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>8</v>
       </c>
@@ -3579,7 +4551,10 @@
         <v>481044</v>
       </c>
     </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +4562,10 @@
         <v>484451</v>
       </c>
     </row>
-    <row r="11" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +4573,10 @@
         <v>491343</v>
       </c>
     </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
       <c r="E12" s="15" t="s">
         <v>11</v>
       </c>
@@ -3603,7 +4584,10 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>12</v>
       </c>
@@ -3611,7 +4595,10 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
       <c r="E14" s="15" t="s">
         <v>13</v>
       </c>
@@ -3619,7 +4606,10 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>14</v>
       </c>
@@ -3636,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC808CDF-F8D4-481A-B062-CC9EAB270FE0}">
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:H539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E367" sqref="E367:F540"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,20 +4642,27 @@
     <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:8" x14ac:dyDescent="0.25">
       <c r="G1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F2" s="16">
         <v>45292</v>
       </c>
       <c r="G2" s="1">
         <v>13608</v>
       </c>
-    </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f>MONTH(F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F3" s="16">
         <f>F2+1</f>
         <v>45293</v>
@@ -3673,2915 +4670,4866 @@
       <c r="G3" s="1">
         <v>22996</v>
       </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="0">MONTH(F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F4" s="16">
-        <f t="shared" ref="F4:F67" si="0">F3+1</f>
+        <f t="shared" ref="F4:F67" si="1">F3+1</f>
         <v>45294</v>
       </c>
       <c r="G4" s="1">
         <v>15114</v>
       </c>
-    </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45295</v>
       </c>
       <c r="G5" s="1">
         <v>3858</v>
       </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45296</v>
       </c>
       <c r="G6" s="1">
         <v>24330</v>
       </c>
-    </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45297</v>
       </c>
       <c r="G7" s="1">
         <v>9708</v>
       </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45298</v>
       </c>
       <c r="G8" s="1">
         <v>23633</v>
       </c>
-    </row>
-    <row r="9" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45299</v>
       </c>
       <c r="G9" s="1">
         <v>5617</v>
       </c>
-    </row>
-    <row r="10" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45300</v>
       </c>
       <c r="G10" s="1">
         <v>12967</v>
       </c>
-    </row>
-    <row r="11" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45301</v>
       </c>
       <c r="G11" s="1">
         <v>4297</v>
       </c>
-    </row>
-    <row r="12" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45302</v>
       </c>
       <c r="G12" s="1">
         <v>4840</v>
       </c>
-    </row>
-    <row r="13" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45303</v>
       </c>
       <c r="G13" s="1">
         <v>1896</v>
       </c>
-    </row>
-    <row r="14" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45304</v>
       </c>
       <c r="G14" s="1">
         <v>14115</v>
       </c>
-    </row>
-    <row r="15" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45305</v>
       </c>
       <c r="G15" s="1">
         <v>6684</v>
       </c>
-    </row>
-    <row r="16" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45306</v>
       </c>
       <c r="G16" s="1">
         <v>16544</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45307</v>
       </c>
       <c r="G17" s="1">
         <v>5674</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45308</v>
       </c>
       <c r="G18" s="1">
         <v>2191</v>
       </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45309</v>
       </c>
       <c r="G19" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45310</v>
       </c>
       <c r="G20" s="1">
         <v>22615</v>
       </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45311</v>
       </c>
       <c r="G21" s="1">
         <v>18056</v>
       </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45312</v>
       </c>
       <c r="G22" s="1">
         <v>24606</v>
       </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45313</v>
       </c>
       <c r="G23" s="1">
         <v>16393</v>
       </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45314</v>
       </c>
       <c r="G24" s="1">
         <v>8015</v>
       </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45315</v>
       </c>
       <c r="G25" s="1">
         <v>22020</v>
       </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45316</v>
       </c>
       <c r="G26" s="1">
         <v>8260</v>
       </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45317</v>
       </c>
       <c r="G27" s="1">
         <v>12949</v>
       </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45318</v>
       </c>
       <c r="G28" s="1">
         <v>23317</v>
       </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45319</v>
       </c>
       <c r="G29" s="1">
         <v>19063</v>
       </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45320</v>
       </c>
       <c r="G30" s="1">
         <v>23095</v>
       </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45321</v>
       </c>
       <c r="G31" s="1">
         <v>6458</v>
       </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45322</v>
       </c>
       <c r="G32" s="1">
         <v>21074</v>
       </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45323</v>
       </c>
       <c r="G33" s="1">
         <v>23594</v>
       </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45324</v>
       </c>
       <c r="G34" s="1">
         <v>3137</v>
       </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45325</v>
       </c>
       <c r="G35" s="1">
         <v>23273</v>
       </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45326</v>
       </c>
       <c r="G36" s="1">
         <v>14051</v>
       </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F37" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45327</v>
       </c>
       <c r="G37" s="1">
         <v>12506</v>
       </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F38" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45328</v>
       </c>
       <c r="G38" s="1">
         <v>11216</v>
       </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F39" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45329</v>
       </c>
       <c r="G39" s="1">
         <v>12696</v>
       </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F40" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45330</v>
       </c>
       <c r="G40" s="1">
         <v>23103</v>
       </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F41" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45331</v>
       </c>
       <c r="G41" s="1">
         <v>12491</v>
       </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F42" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45332</v>
       </c>
       <c r="G42" s="1">
         <v>3258</v>
       </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F43" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45333</v>
       </c>
       <c r="G43" s="1">
         <v>11302</v>
       </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F44" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45334</v>
       </c>
       <c r="G44" s="1">
         <v>19282</v>
       </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F45" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45335</v>
       </c>
       <c r="G45" s="1">
         <v>20047</v>
       </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F46" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45336</v>
       </c>
       <c r="G46" s="1">
         <v>7463</v>
       </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45337</v>
       </c>
       <c r="G47" s="1">
         <v>21148</v>
       </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F48" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45338</v>
       </c>
       <c r="G48" s="1">
         <v>17199</v>
       </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F49" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45339</v>
       </c>
       <c r="G49" s="1">
         <v>17681</v>
       </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F50" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45340</v>
       </c>
       <c r="G50" s="1">
         <v>15996</v>
       </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F51" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45341</v>
       </c>
       <c r="G51" s="1">
         <v>16978</v>
       </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F52" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45342</v>
       </c>
       <c r="G52" s="1">
         <v>13105</v>
       </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F53" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45343</v>
       </c>
       <c r="G53" s="1">
         <v>7270</v>
       </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F54" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45344</v>
       </c>
       <c r="G54" s="1">
         <v>5707</v>
       </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F55" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45345</v>
       </c>
       <c r="G55" s="1">
         <v>19383</v>
       </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F56" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45346</v>
       </c>
       <c r="G56" s="1">
         <v>9275</v>
       </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F57" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45347</v>
       </c>
       <c r="G57" s="1">
         <v>20968</v>
       </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F58" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45348</v>
       </c>
       <c r="G58" s="1">
         <v>8741</v>
       </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45349</v>
       </c>
       <c r="G59" s="1">
         <v>3526</v>
       </c>
-    </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F60" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45350</v>
       </c>
       <c r="G60" s="1">
         <v>19131</v>
       </c>
-    </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F61" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45351</v>
       </c>
       <c r="G61" s="1">
         <v>3431</v>
       </c>
-    </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F62" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45352</v>
       </c>
       <c r="G62" s="1">
         <v>16740</v>
       </c>
-    </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F63" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45353</v>
       </c>
       <c r="G63" s="1">
         <v>4221</v>
       </c>
-    </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F64" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45354</v>
       </c>
       <c r="G64" s="1">
         <v>21168</v>
       </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F65" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45355</v>
       </c>
       <c r="G65" s="1">
         <v>23040</v>
       </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F66" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45356</v>
       </c>
       <c r="G66" s="1">
         <v>9672</v>
       </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F67" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45357</v>
       </c>
       <c r="G67" s="1">
         <v>5468</v>
       </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H130" si="2">MONTH(F67)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F68" s="16">
-        <f t="shared" ref="F68:F131" si="1">F67+1</f>
+        <f t="shared" ref="F68:F131" si="3">F67+1</f>
         <v>45358</v>
       </c>
       <c r="G68" s="1">
         <v>502</v>
       </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F69" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45359</v>
       </c>
       <c r="G69" s="1">
         <v>6096</v>
       </c>
-    </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F70" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45360</v>
       </c>
       <c r="G70" s="1">
         <v>17999</v>
       </c>
-    </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F71" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45361</v>
       </c>
       <c r="G71" s="1">
         <v>1590</v>
       </c>
-    </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F72" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45362</v>
       </c>
       <c r="G72" s="1">
         <v>22488</v>
       </c>
-    </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F73" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45363</v>
       </c>
       <c r="G73" s="1">
         <v>5082</v>
       </c>
-    </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F74" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45364</v>
       </c>
       <c r="G74" s="1">
         <v>22062</v>
       </c>
-    </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F75" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45365</v>
       </c>
       <c r="G75" s="1">
         <v>1463</v>
       </c>
-    </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F76" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45366</v>
       </c>
       <c r="G76" s="1">
         <v>23829</v>
       </c>
-    </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F77" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45367</v>
       </c>
       <c r="G77" s="1">
         <v>1311</v>
       </c>
-    </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F78" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45368</v>
       </c>
       <c r="G78" s="1">
         <v>14072</v>
       </c>
-    </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F79" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45369</v>
       </c>
       <c r="G79" s="1">
         <v>1410</v>
       </c>
-    </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F80" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45370</v>
       </c>
       <c r="G80" s="1">
         <v>6699</v>
       </c>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F81" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45371</v>
       </c>
       <c r="G81" s="1">
         <v>18762</v>
       </c>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F82" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45372</v>
       </c>
       <c r="G82" s="1">
         <v>9190</v>
       </c>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F83" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45373</v>
       </c>
       <c r="G83" s="1">
         <v>15214</v>
       </c>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F84" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45374</v>
       </c>
       <c r="G84" s="1">
         <v>9887</v>
       </c>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F85" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45375</v>
       </c>
       <c r="G85" s="1">
         <v>20450</v>
       </c>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F86" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45376</v>
       </c>
       <c r="G86" s="1">
         <v>15458</v>
       </c>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F87" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45377</v>
       </c>
       <c r="G87" s="1">
         <v>2583</v>
       </c>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F88" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45378</v>
       </c>
       <c r="G88" s="1">
         <v>11580</v>
       </c>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F89" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45379</v>
       </c>
       <c r="G89" s="1">
         <v>14000</v>
       </c>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F90" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45380</v>
       </c>
       <c r="G90" s="1">
         <v>10347</v>
       </c>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F91" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45381</v>
       </c>
       <c r="G91" s="1">
         <v>12739</v>
       </c>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F92" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45382</v>
       </c>
       <c r="G92" s="1">
         <v>2370</v>
       </c>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F93" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45383</v>
       </c>
       <c r="G93" s="1">
         <v>17410</v>
       </c>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F94" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45384</v>
       </c>
       <c r="G94" s="1">
         <v>15650</v>
       </c>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F95" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45385</v>
       </c>
       <c r="G95" s="1">
         <v>19114</v>
       </c>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F96" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45386</v>
       </c>
       <c r="G96" s="1">
         <v>9461</v>
       </c>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F97" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45387</v>
       </c>
       <c r="G97" s="1">
         <v>5933</v>
       </c>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F98" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45388</v>
       </c>
       <c r="G98" s="1">
         <v>16877</v>
       </c>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F99" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45389</v>
       </c>
       <c r="G99" s="1">
         <v>21007</v>
       </c>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F100" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45390</v>
       </c>
       <c r="G100" s="1">
         <v>15078</v>
       </c>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F101" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45391</v>
       </c>
       <c r="G101" s="1">
         <v>4389</v>
       </c>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F102" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45392</v>
       </c>
       <c r="G102" s="1">
         <v>23205</v>
       </c>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F103" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45393</v>
       </c>
       <c r="G103" s="1">
         <v>19045</v>
       </c>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F104" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45394</v>
       </c>
       <c r="G104" s="1">
         <v>6318</v>
       </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F105" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45395</v>
       </c>
       <c r="G105" s="1">
         <v>4180</v>
       </c>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F106" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45396</v>
       </c>
       <c r="G106" s="1">
         <v>3898</v>
       </c>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F107" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45397</v>
       </c>
       <c r="G107" s="1">
         <v>7045</v>
       </c>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F108" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45398</v>
       </c>
       <c r="G108" s="1">
         <v>10912</v>
       </c>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F109" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45399</v>
       </c>
       <c r="G109" s="1">
         <v>2884</v>
       </c>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F110" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45400</v>
       </c>
       <c r="G110" s="1">
         <v>12340</v>
       </c>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F111" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45401</v>
       </c>
       <c r="G111" s="1">
         <v>5265</v>
       </c>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F112" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45402</v>
       </c>
       <c r="G112" s="1">
         <v>23699</v>
       </c>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F113" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45403</v>
       </c>
       <c r="G113" s="1">
         <v>4026</v>
       </c>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F114" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45404</v>
       </c>
       <c r="G114" s="1">
         <v>14460</v>
       </c>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F115" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45405</v>
       </c>
       <c r="G115" s="1">
         <v>19649</v>
       </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F116" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45406</v>
       </c>
       <c r="G116" s="1">
         <v>21324</v>
       </c>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F117" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45407</v>
       </c>
       <c r="G117" s="1">
         <v>14147</v>
       </c>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F118" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45408</v>
       </c>
       <c r="G118" s="1">
         <v>13347</v>
       </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F119" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45409</v>
       </c>
       <c r="G119" s="1">
         <v>9742</v>
       </c>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F120" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45410</v>
       </c>
       <c r="G120" s="1">
         <v>13456</v>
       </c>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F121" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45411</v>
       </c>
       <c r="G121" s="1">
         <v>20018</v>
       </c>
-    </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F122" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45412</v>
       </c>
       <c r="G122" s="1">
         <v>14247</v>
       </c>
-    </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F123" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45413</v>
       </c>
       <c r="G123" s="1">
         <v>6280</v>
       </c>
-    </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F124" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45414</v>
       </c>
       <c r="G124" s="1">
         <v>18278</v>
       </c>
-    </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F125" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45415</v>
       </c>
       <c r="G125" s="1">
         <v>24771</v>
       </c>
-    </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F126" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45416</v>
       </c>
       <c r="G126" s="1">
         <v>16356</v>
       </c>
-    </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F127" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45417</v>
       </c>
       <c r="G127" s="1">
         <v>11895</v>
       </c>
-    </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F128" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45418</v>
       </c>
       <c r="G128" s="1">
         <v>8191</v>
       </c>
-    </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F129" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45419</v>
       </c>
       <c r="G129" s="1">
         <v>20619</v>
       </c>
-    </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F130" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45420</v>
       </c>
       <c r="G130" s="1">
         <v>15771</v>
       </c>
-    </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F131" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45421</v>
       </c>
       <c r="G131" s="1">
         <v>17155</v>
       </c>
-    </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="1">
+        <f t="shared" ref="H131:H194" si="4">MONTH(F131)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F132" s="16">
-        <f t="shared" ref="F132:F195" si="2">F131+1</f>
+        <f t="shared" ref="F132:F195" si="5">F131+1</f>
         <v>45422</v>
       </c>
       <c r="G132" s="1">
         <v>9269</v>
       </c>
-    </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F133" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45423</v>
       </c>
       <c r="G133" s="1">
         <v>23690</v>
       </c>
-    </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F134" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45424</v>
       </c>
       <c r="G134" s="1">
         <v>14601</v>
       </c>
-    </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F135" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45425</v>
       </c>
       <c r="G135" s="1">
         <v>20698</v>
       </c>
-    </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F136" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45426</v>
       </c>
       <c r="G136" s="1">
         <v>13331</v>
       </c>
-    </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F137" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45427</v>
       </c>
       <c r="G137" s="1">
         <v>2209</v>
       </c>
-    </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F138" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45428</v>
       </c>
       <c r="G138" s="1">
         <v>20171</v>
       </c>
-    </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F139" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45429</v>
       </c>
       <c r="G139" s="1">
         <v>3845</v>
       </c>
-    </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F140" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45430</v>
       </c>
       <c r="G140" s="1">
         <v>23668</v>
       </c>
-    </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F141" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45431</v>
       </c>
       <c r="G141" s="1">
         <v>13442</v>
       </c>
-    </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F142" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45432</v>
       </c>
       <c r="G142" s="1">
         <v>24072</v>
       </c>
-    </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F143" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45433</v>
       </c>
       <c r="G143" s="1">
         <v>23947</v>
       </c>
-    </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F144" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45434</v>
       </c>
       <c r="G144" s="1">
         <v>5078</v>
       </c>
-    </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F145" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45435</v>
       </c>
       <c r="G145" s="1">
         <v>18510</v>
       </c>
-    </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F146" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45436</v>
       </c>
       <c r="G146" s="1">
         <v>17796</v>
       </c>
-    </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F147" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45437</v>
       </c>
       <c r="G147" s="1">
         <v>16714</v>
       </c>
-    </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F148" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45438</v>
       </c>
       <c r="G148" s="1">
         <v>5382</v>
       </c>
-    </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F149" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45439</v>
       </c>
       <c r="G149" s="1">
         <v>8013</v>
       </c>
-    </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F150" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45440</v>
       </c>
       <c r="G150" s="1">
         <v>3045</v>
       </c>
-    </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F151" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45441</v>
       </c>
       <c r="G151" s="1">
         <v>24949</v>
       </c>
-    </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F152" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45442</v>
       </c>
       <c r="G152" s="1">
         <v>24896</v>
       </c>
-    </row>
-    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F153" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45443</v>
       </c>
       <c r="G153" s="1">
         <v>16808</v>
       </c>
-    </row>
-    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F154" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45444</v>
       </c>
       <c r="G154" s="1">
         <v>15349</v>
       </c>
-    </row>
-    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F155" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45445</v>
       </c>
       <c r="G155" s="1">
         <v>16255</v>
       </c>
-    </row>
-    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F156" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45446</v>
       </c>
       <c r="G156" s="1">
         <v>10721</v>
       </c>
-    </row>
-    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F157" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45447</v>
       </c>
       <c r="G157" s="1">
         <v>3672</v>
       </c>
-    </row>
-    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F158" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45448</v>
       </c>
       <c r="G158" s="1">
         <v>18202</v>
       </c>
-    </row>
-    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F159" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45449</v>
       </c>
       <c r="G159" s="1">
         <v>13534</v>
       </c>
-    </row>
-    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F160" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45450</v>
       </c>
       <c r="G160" s="1">
         <v>18761</v>
       </c>
-    </row>
-    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F161" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45451</v>
       </c>
       <c r="G161" s="1">
         <v>10445</v>
       </c>
-    </row>
-    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F162" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45452</v>
       </c>
       <c r="G162" s="1">
         <v>10532</v>
       </c>
-    </row>
-    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F163" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45453</v>
       </c>
       <c r="G163" s="1">
         <v>4879</v>
       </c>
-    </row>
-    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F164" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45454</v>
       </c>
       <c r="G164" s="1">
         <v>7997</v>
       </c>
-    </row>
-    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F165" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45455</v>
       </c>
       <c r="G165" s="1">
         <v>6455</v>
       </c>
-    </row>
-    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F166" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45456</v>
       </c>
       <c r="G166" s="1">
         <v>3357</v>
       </c>
-    </row>
-    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F167" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45457</v>
       </c>
       <c r="G167" s="1">
         <v>18706</v>
       </c>
-    </row>
-    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F168" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45458</v>
       </c>
       <c r="G168" s="1">
         <v>2457</v>
       </c>
-    </row>
-    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F169" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45459</v>
       </c>
       <c r="G169" s="1">
         <v>10872</v>
       </c>
-    </row>
-    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F170" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45460</v>
       </c>
       <c r="G170" s="1">
         <v>20946</v>
       </c>
-    </row>
-    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F171" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45461</v>
       </c>
       <c r="G171" s="1">
         <v>13042</v>
       </c>
-    </row>
-    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F172" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45462</v>
       </c>
       <c r="G172" s="1">
         <v>19686</v>
       </c>
-    </row>
-    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F173" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45463</v>
       </c>
       <c r="G173" s="1">
         <v>11381</v>
       </c>
-    </row>
-    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F174" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45464</v>
       </c>
       <c r="G174" s="1">
         <v>21394</v>
       </c>
-    </row>
-    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F175" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45465</v>
       </c>
       <c r="G175" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F176" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45466</v>
       </c>
       <c r="G176" s="1">
         <v>13828</v>
       </c>
-    </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F177" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45467</v>
       </c>
       <c r="G177" s="1">
         <v>4602</v>
       </c>
-    </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H177" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F178" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45468</v>
       </c>
       <c r="G178" s="1">
         <v>10881</v>
       </c>
-    </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F179" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45469</v>
       </c>
       <c r="G179" s="1">
         <v>15820</v>
       </c>
-    </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F180" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45470</v>
       </c>
       <c r="G180" s="1">
         <v>5406</v>
       </c>
-    </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F181" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45471</v>
       </c>
       <c r="G181" s="1">
         <v>10214</v>
       </c>
-    </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F182" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45472</v>
       </c>
       <c r="G182" s="1">
         <v>20121</v>
       </c>
-    </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F183" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45473</v>
       </c>
       <c r="G183" s="1">
         <v>18737</v>
       </c>
-    </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F184" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45474</v>
       </c>
       <c r="G184" s="1">
         <v>18019</v>
       </c>
-    </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F185" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45475</v>
       </c>
       <c r="G185" s="1">
         <v>24769</v>
       </c>
-    </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F186" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45476</v>
       </c>
       <c r="G186" s="1">
         <v>5653</v>
       </c>
-    </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F187" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45477</v>
       </c>
       <c r="G187" s="1">
         <v>19680</v>
       </c>
-    </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F188" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45478</v>
       </c>
       <c r="G188" s="1">
         <v>5378</v>
       </c>
-    </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F189" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45479</v>
       </c>
       <c r="G189" s="1">
         <v>10957</v>
       </c>
-    </row>
-    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F190" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45480</v>
       </c>
       <c r="G190" s="1">
         <v>16897</v>
       </c>
-    </row>
-    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F191" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45481</v>
       </c>
       <c r="G191" s="1">
         <v>3508</v>
       </c>
-    </row>
-    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F192" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45482</v>
       </c>
       <c r="G192" s="1">
         <v>765</v>
       </c>
-    </row>
-    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F193" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45483</v>
       </c>
       <c r="G193" s="1">
         <v>1152</v>
       </c>
-    </row>
-    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F194" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45484</v>
       </c>
       <c r="G194" s="1">
         <v>3734</v>
       </c>
-    </row>
-    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F195" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45485</v>
       </c>
       <c r="G195" s="1">
         <v>12306</v>
       </c>
-    </row>
-    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="1">
+        <f t="shared" ref="H195:H258" si="6">MONTH(F195)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F196" s="16">
-        <f t="shared" ref="F196:F259" si="3">F195+1</f>
+        <f t="shared" ref="F196:F259" si="7">F195+1</f>
         <v>45486</v>
       </c>
       <c r="G196" s="1">
         <v>6947</v>
       </c>
-    </row>
-    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F197" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45487</v>
       </c>
       <c r="G197" s="1">
         <v>7368</v>
       </c>
-    </row>
-    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F198" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45488</v>
       </c>
       <c r="G198" s="1">
         <v>19297</v>
       </c>
-    </row>
-    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F199" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45489</v>
       </c>
       <c r="G199" s="1">
         <v>3395</v>
       </c>
-    </row>
-    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F200" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45490</v>
       </c>
       <c r="G200" s="1">
         <v>14642</v>
       </c>
-    </row>
-    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F201" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45491</v>
       </c>
       <c r="G201" s="1">
         <v>835</v>
       </c>
-    </row>
-    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F202" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45492</v>
       </c>
       <c r="G202" s="1">
         <v>11911</v>
       </c>
-    </row>
-    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F203" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45493</v>
       </c>
       <c r="G203" s="1">
         <v>11294</v>
       </c>
-    </row>
-    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F204" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45494</v>
       </c>
       <c r="G204" s="1">
         <v>14060</v>
       </c>
-    </row>
-    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F205" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45495</v>
       </c>
       <c r="G205" s="1">
         <v>7347</v>
       </c>
-    </row>
-    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F206" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45496</v>
       </c>
       <c r="G206" s="1">
         <v>16005</v>
       </c>
-    </row>
-    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F207" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45497</v>
       </c>
       <c r="G207" s="1">
         <v>2917</v>
       </c>
-    </row>
-    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F208" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45498</v>
       </c>
       <c r="G208" s="1">
         <v>17143</v>
       </c>
-    </row>
-    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F209" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45499</v>
       </c>
       <c r="G209" s="1">
         <v>12461</v>
       </c>
-    </row>
-    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F210" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45500</v>
       </c>
       <c r="G210" s="1">
         <v>7874</v>
       </c>
-    </row>
-    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F211" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45501</v>
       </c>
       <c r="G211" s="1">
         <v>16212</v>
       </c>
-    </row>
-    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F212" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45502</v>
       </c>
       <c r="G212" s="1">
         <v>6779</v>
       </c>
-    </row>
-    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F213" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45503</v>
       </c>
       <c r="G213" s="1">
         <v>6068</v>
       </c>
-    </row>
-    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F214" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45504</v>
       </c>
       <c r="G214" s="1">
         <v>7699</v>
       </c>
-    </row>
-    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F215" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45505</v>
       </c>
       <c r="G215" s="1">
         <v>7565</v>
       </c>
-    </row>
-    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F216" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45506</v>
       </c>
       <c r="G216" s="1">
         <v>24823</v>
       </c>
-    </row>
-    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F217" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45507</v>
       </c>
       <c r="G217" s="1">
         <v>21890</v>
       </c>
-    </row>
-    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F218" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45508</v>
       </c>
       <c r="G218" s="1">
         <v>19528</v>
       </c>
-    </row>
-    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F219" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45509</v>
       </c>
       <c r="G219" s="1">
         <v>8747</v>
       </c>
-    </row>
-    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F220" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45510</v>
       </c>
       <c r="G220" s="1">
         <v>15990</v>
       </c>
-    </row>
-    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F221" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45511</v>
       </c>
       <c r="G221" s="1">
         <v>11534</v>
       </c>
-    </row>
-    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F222" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45512</v>
       </c>
       <c r="G222" s="1">
         <v>21197</v>
       </c>
-    </row>
-    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F223" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45513</v>
       </c>
       <c r="G223" s="1">
         <v>14970</v>
       </c>
-    </row>
-    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F224" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45514</v>
       </c>
       <c r="G224" s="1">
         <v>22886</v>
       </c>
-    </row>
-    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F225" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45515</v>
       </c>
       <c r="G225" s="1">
         <v>7445</v>
       </c>
-    </row>
-    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F226" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45516</v>
       </c>
       <c r="G226" s="1">
         <v>22678</v>
       </c>
-    </row>
-    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F227" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45517</v>
       </c>
       <c r="G227" s="1">
         <v>19303</v>
       </c>
-    </row>
-    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F228" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45518</v>
       </c>
       <c r="G228" s="1">
         <v>21145</v>
       </c>
-    </row>
-    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F229" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45519</v>
       </c>
       <c r="G229" s="1">
         <v>11074</v>
       </c>
-    </row>
-    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F230" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45520</v>
       </c>
       <c r="G230" s="1">
         <v>1706</v>
       </c>
-    </row>
-    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F231" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45521</v>
       </c>
       <c r="G231" s="1">
         <v>16509</v>
       </c>
-    </row>
-    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F232" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45522</v>
       </c>
       <c r="G232" s="1">
         <v>8585</v>
       </c>
-    </row>
-    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F233" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45523</v>
       </c>
       <c r="G233" s="1">
         <v>18032</v>
       </c>
-    </row>
-    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F234" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45524</v>
       </c>
       <c r="G234" s="1">
         <v>20548</v>
       </c>
-    </row>
-    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F235" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45525</v>
       </c>
       <c r="G235" s="1">
         <v>9527</v>
       </c>
-    </row>
-    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F236" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45526</v>
       </c>
       <c r="G236" s="1">
         <v>4126</v>
       </c>
-    </row>
-    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F237" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45527</v>
       </c>
       <c r="G237" s="1">
         <v>16098</v>
       </c>
-    </row>
-    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F238" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45528</v>
       </c>
       <c r="G238" s="1">
         <v>7823</v>
       </c>
-    </row>
-    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F239" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45529</v>
       </c>
       <c r="G239" s="1">
         <v>16419</v>
       </c>
-    </row>
-    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F240" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45530</v>
       </c>
       <c r="G240" s="1">
         <v>15759</v>
       </c>
-    </row>
-    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F241" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45531</v>
       </c>
       <c r="G241" s="1">
         <v>6058</v>
       </c>
-    </row>
-    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F242" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45532</v>
       </c>
       <c r="G242" s="1">
         <v>23048</v>
       </c>
-    </row>
-    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F243" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45533</v>
       </c>
       <c r="G243" s="1">
         <v>15930</v>
       </c>
-    </row>
-    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F244" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45534</v>
       </c>
       <c r="G244" s="1">
         <v>23918</v>
       </c>
-    </row>
-    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F245" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45535</v>
       </c>
       <c r="G245" s="14">
         <v>6274</v>
       </c>
-    </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F246" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45536</v>
       </c>
-    </row>
-    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G246" s="1">
+        <f ca="1">RANDBETWEEN(500,20000)</f>
+        <v>2396</v>
+      </c>
+      <c r="H246" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F247" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45537</v>
       </c>
-    </row>
-    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G247" s="1">
+        <f t="shared" ref="G247:G310" ca="1" si="8">RANDBETWEEN(500,20000)</f>
+        <v>3390</v>
+      </c>
+      <c r="H247" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F248" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45538</v>
       </c>
-    </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G248" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>1471</v>
+      </c>
+      <c r="H248" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F249" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45539</v>
       </c>
-    </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G249" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>4818</v>
+      </c>
+      <c r="H249" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F250" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45540</v>
       </c>
-    </row>
-    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G250" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>16119</v>
+      </c>
+      <c r="H250" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F251" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45541</v>
       </c>
-    </row>
-    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G251" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>11998</v>
+      </c>
+      <c r="H251" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F252" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45542</v>
       </c>
-    </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G252" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2060</v>
+      </c>
+      <c r="H252" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F253" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45543</v>
       </c>
-    </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G253" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>8818</v>
+      </c>
+      <c r="H253" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F254" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45544</v>
       </c>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G254" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2159</v>
+      </c>
+      <c r="H254" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F255" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45545</v>
       </c>
-    </row>
-    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G255" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>9695</v>
+      </c>
+      <c r="H255" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F256" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45546</v>
       </c>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2290</v>
+      </c>
+      <c r="H256" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F257" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45547</v>
       </c>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17840</v>
+      </c>
+      <c r="H257" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F258" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45548</v>
       </c>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15310</v>
+      </c>
+      <c r="H258" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F259" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>45549</v>
       </c>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>19588</v>
+      </c>
+      <c r="H259" s="1">
+        <f t="shared" ref="H259:H322" si="9">MONTH(F259)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F260" s="16">
-        <f t="shared" ref="F260:F323" si="4">F259+1</f>
+        <f t="shared" ref="F260:F323" si="10">F259+1</f>
         <v>45550</v>
       </c>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15404</v>
+      </c>
+      <c r="H260" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F261" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45551</v>
       </c>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17007</v>
+      </c>
+      <c r="H261" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F262" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45552</v>
       </c>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>6447</v>
+      </c>
+      <c r="H262" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F263" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45553</v>
       </c>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14566</v>
+      </c>
+      <c r="H263" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F264" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45554</v>
       </c>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>18710</v>
+      </c>
+      <c r="H264" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F265" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45555</v>
       </c>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17057</v>
+      </c>
+      <c r="H265" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F266" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45556</v>
       </c>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15446</v>
+      </c>
+      <c r="H266" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F267" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45557</v>
       </c>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10983</v>
+      </c>
+      <c r="H267" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F268" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45558</v>
       </c>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3968</v>
+      </c>
+      <c r="H268" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F269" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45559</v>
       </c>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17536</v>
+      </c>
+      <c r="H269" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F270" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45560</v>
       </c>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17365</v>
+      </c>
+      <c r="H270" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F271" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45561</v>
       </c>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G271" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5031</v>
+      </c>
+      <c r="H271" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F272" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45562</v>
       </c>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>13425</v>
+      </c>
+      <c r="H272" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F273" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45563</v>
       </c>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10260</v>
+      </c>
+      <c r="H273" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F274" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45564</v>
       </c>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>4621</v>
+      </c>
+      <c r="H274" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F275" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45565</v>
       </c>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>7099</v>
+      </c>
+      <c r="H275" s="1">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F276" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45566</v>
       </c>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15359</v>
+      </c>
+      <c r="H276" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F277" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45567</v>
       </c>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10723</v>
+      </c>
+      <c r="H277" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F278" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45568</v>
       </c>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15397</v>
+      </c>
+      <c r="H278" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F279" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45569</v>
       </c>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17601</v>
+      </c>
+      <c r="H279" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F280" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45570</v>
       </c>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>11372</v>
+      </c>
+      <c r="H280" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F281" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45571</v>
       </c>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>11137</v>
+      </c>
+      <c r="H281" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F282" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45572</v>
       </c>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>16028</v>
+      </c>
+      <c r="H282" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F283" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45573</v>
       </c>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14244</v>
+      </c>
+      <c r="H283" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F284" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45574</v>
       </c>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3361</v>
+      </c>
+      <c r="H284" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F285" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45575</v>
       </c>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10820</v>
+      </c>
+      <c r="H285" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F286" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45576</v>
       </c>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10562</v>
+      </c>
+      <c r="H286" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F287" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45577</v>
       </c>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17112</v>
+      </c>
+      <c r="H287" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F288" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45578</v>
       </c>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>5141</v>
+      </c>
+      <c r="H288" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F289" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45579</v>
       </c>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15931</v>
+      </c>
+      <c r="H289" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F290" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45580</v>
       </c>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17635</v>
+      </c>
+      <c r="H290" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F291" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45581</v>
       </c>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>3446</v>
+      </c>
+      <c r="H291" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F292" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45582</v>
       </c>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14766</v>
+      </c>
+      <c r="H292" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F293" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45583</v>
       </c>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>8021</v>
+      </c>
+      <c r="H293" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F294" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45584</v>
       </c>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>6715</v>
+      </c>
+      <c r="H294" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F295" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45585</v>
       </c>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>12642</v>
+      </c>
+      <c r="H295" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F296" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45586</v>
       </c>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>16411</v>
+      </c>
+      <c r="H296" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F297" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45587</v>
       </c>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17842</v>
+      </c>
+      <c r="H297" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F298" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45588</v>
       </c>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2217</v>
+      </c>
+      <c r="H298" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F299" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45589</v>
       </c>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14366</v>
+      </c>
+      <c r="H299" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F300" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45590</v>
       </c>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14141</v>
+      </c>
+      <c r="H300" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F301" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45591</v>
       </c>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>15762</v>
+      </c>
+      <c r="H301" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F302" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45592</v>
       </c>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>13431</v>
+      </c>
+      <c r="H302" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F303" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45593</v>
       </c>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>16053</v>
+      </c>
+      <c r="H303" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F304" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45594</v>
       </c>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>2743</v>
+      </c>
+      <c r="H304" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F305" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45595</v>
       </c>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17825</v>
+      </c>
+      <c r="H305" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F306" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45596</v>
       </c>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>17048</v>
+      </c>
+      <c r="H306" s="1">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F307" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45597</v>
       </c>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>4561</v>
+      </c>
+      <c r="H307" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F308" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45598</v>
       </c>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>10744</v>
+      </c>
+      <c r="H308" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F309" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45599</v>
       </c>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>14971</v>
+      </c>
+      <c r="H309" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F310" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45600</v>
       </c>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>19130</v>
+      </c>
+      <c r="H310" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F311" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45601</v>
       </c>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="1">
+        <f t="shared" ref="G311:G367" ca="1" si="11">RANDBETWEEN(500,20000)</f>
+        <v>9806</v>
+      </c>
+      <c r="H311" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F312" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45602</v>
       </c>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>3793</v>
+      </c>
+      <c r="H312" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F313" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45603</v>
       </c>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>12715</v>
+      </c>
+      <c r="H313" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F314" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45604</v>
       </c>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>2348</v>
+      </c>
+      <c r="H314" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F315" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45605</v>
       </c>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>13926</v>
+      </c>
+      <c r="H315" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F316" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45606</v>
       </c>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1768</v>
+      </c>
+      <c r="H316" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F317" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45607</v>
       </c>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15060</v>
+      </c>
+      <c r="H317" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F318" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45608</v>
       </c>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>5833</v>
+      </c>
+      <c r="H318" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F319" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45609</v>
       </c>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>17232</v>
+      </c>
+      <c r="H319" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F320" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45610</v>
       </c>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>4540</v>
+      </c>
+      <c r="H320" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F321" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45611</v>
       </c>
-    </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>3301</v>
+      </c>
+      <c r="H321" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F322" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45612</v>
       </c>
-    </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1340</v>
+      </c>
+      <c r="H322" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F323" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>45613</v>
       </c>
-    </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>4540</v>
+      </c>
+      <c r="H323" s="1">
+        <f t="shared" ref="H323:H366" si="12">MONTH(F323)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F324" s="16">
-        <f t="shared" ref="F324:F387" si="5">F323+1</f>
+        <f t="shared" ref="F324:F367" si="13">F323+1</f>
         <v>45614</v>
       </c>
-    </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1015</v>
+      </c>
+      <c r="H324" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F325" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45615</v>
       </c>
-    </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>19838</v>
+      </c>
+      <c r="H325" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F326" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45616</v>
       </c>
-    </row>
-    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>2483</v>
+      </c>
+      <c r="H326" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F327" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45617</v>
       </c>
-    </row>
-    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G327" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>12759</v>
+      </c>
+      <c r="H327" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F328" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45618</v>
       </c>
-    </row>
-    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>16775</v>
+      </c>
+      <c r="H328" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F329" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45619</v>
       </c>
-    </row>
-    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>4623</v>
+      </c>
+      <c r="H329" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F330" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45620</v>
       </c>
-    </row>
-    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15365</v>
+      </c>
+      <c r="H330" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F331" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45621</v>
       </c>
-    </row>
-    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>6873</v>
+      </c>
+      <c r="H331" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F332" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45622</v>
       </c>
-    </row>
-    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>16340</v>
+      </c>
+      <c r="H332" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F333" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45623</v>
       </c>
-    </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>14784</v>
+      </c>
+      <c r="H333" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F334" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45624</v>
       </c>
-    </row>
-    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>18263</v>
+      </c>
+      <c r="H334" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F335" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45625</v>
       </c>
-    </row>
-    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G335" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1142</v>
+      </c>
+      <c r="H335" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F336" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45626</v>
       </c>
-    </row>
-    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G336" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>17954</v>
+      </c>
+      <c r="H336" s="1">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F337" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45627</v>
       </c>
-    </row>
-    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G337" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>6121</v>
+      </c>
+      <c r="H337" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F338" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45628</v>
       </c>
-    </row>
-    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15923</v>
+      </c>
+      <c r="H338" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F339" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45629</v>
       </c>
-    </row>
-    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G339" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15348</v>
+      </c>
+      <c r="H339" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F340" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45630</v>
       </c>
-    </row>
-    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G340" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1125</v>
+      </c>
+      <c r="H340" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F341" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45631</v>
       </c>
-    </row>
-    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>10502</v>
+      </c>
+      <c r="H341" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F342" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45632</v>
       </c>
-    </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G342" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15010</v>
+      </c>
+      <c r="H342" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F343" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45633</v>
       </c>
-    </row>
-    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G343" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>19339</v>
+      </c>
+      <c r="H343" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F344" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45634</v>
       </c>
-    </row>
-    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G344" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>5475</v>
+      </c>
+      <c r="H344" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F345" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45635</v>
       </c>
-    </row>
-    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G345" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>9911</v>
+      </c>
+      <c r="H345" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F346" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45636</v>
       </c>
-    </row>
-    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G346" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>12248</v>
+      </c>
+      <c r="H346" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F347" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45637</v>
       </c>
-    </row>
-    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>18946</v>
+      </c>
+      <c r="H347" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F348" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45638</v>
       </c>
-    </row>
-    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G348" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>9788</v>
+      </c>
+      <c r="H348" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F349" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45639</v>
       </c>
-    </row>
-    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G349" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>1821</v>
+      </c>
+      <c r="H349" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F350" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45640</v>
       </c>
-    </row>
-    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G350" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>17305</v>
+      </c>
+      <c r="H350" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F351" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45641</v>
       </c>
-    </row>
-    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G351" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>8227</v>
+      </c>
+      <c r="H351" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F352" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45642</v>
       </c>
-    </row>
-    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G352" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>6741</v>
+      </c>
+      <c r="H352" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F353" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45643</v>
       </c>
-    </row>
-    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G353" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15556</v>
+      </c>
+      <c r="H353" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F354" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45644</v>
       </c>
-    </row>
-    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G354" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>7424</v>
+      </c>
+      <c r="H354" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F355" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45645</v>
       </c>
-    </row>
-    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G355" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>19392</v>
+      </c>
+      <c r="H355" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F356" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45646</v>
       </c>
-    </row>
-    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G356" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>15092</v>
+      </c>
+      <c r="H356" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F357" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45647</v>
       </c>
-    </row>
-    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G357" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>11316</v>
+      </c>
+      <c r="H357" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F358" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45648</v>
       </c>
-    </row>
-    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G358" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>13031</v>
+      </c>
+      <c r="H358" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F359" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45649</v>
       </c>
-    </row>
-    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G359" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>12356</v>
+      </c>
+      <c r="H359" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F360" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45650</v>
       </c>
-    </row>
-    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G360" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>14618</v>
+      </c>
+      <c r="H360" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F361" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45651</v>
       </c>
-    </row>
-    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G361" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>2100</v>
+      </c>
+      <c r="H361" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F362" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45652</v>
       </c>
-    </row>
-    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G362" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>6382</v>
+      </c>
+      <c r="H362" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F363" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45653</v>
       </c>
-    </row>
-    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G363" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>6683</v>
+      </c>
+      <c r="H363" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F364" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45654</v>
       </c>
-    </row>
-    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G364" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>10641</v>
+      </c>
+      <c r="H364" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F365" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45655</v>
       </c>
-    </row>
-    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G365" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>770</v>
+      </c>
+      <c r="H365" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F366" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>45656</v>
       </c>
-    </row>
-    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F367" s="16"/>
-    </row>
-    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G366" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>8479</v>
+      </c>
+      <c r="H366" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F367" s="16">
+        <f t="shared" si="13"/>
+        <v>45657</v>
+      </c>
+      <c r="G367" s="1">
+        <f t="shared" ca="1" si="11"/>
+        <v>18859</v>
+      </c>
+      <c r="H367" s="1">
+        <f t="shared" ref="H367" si="14">MONTH(F367)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F368" s="16"/>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.25">
@@ -7096,9 +10044,6 @@
     </row>
     <row r="539" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F539" s="16"/>
-    </row>
-    <row r="540" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F540" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7111,7 +10056,7 @@
   <dimension ref="A6:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7129,7 +10074,8 @@
         <v>15</v>
       </c>
       <c r="G6" s="16">
-        <v>45483</v>
+        <f>MAX(Расход!F:F)</f>
+        <v>45657</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.25">
@@ -7138,7 +10084,7 @@
       </c>
       <c r="G7" s="16">
         <f>EOMONTH(G6,-1)+1</f>
-        <v>45474</v>
+        <v>45627</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.25">
@@ -7147,7 +10093,7 @@
       </c>
       <c r="G8" s="17">
         <f>DAY(G6)/DAY(EOMONTH(G6,0))</f>
-        <v>0.32258064516129031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="6:7" x14ac:dyDescent="0.25">
@@ -7159,8 +10105,8 @@
         <v>18</v>
       </c>
       <c r="G10" s="19">
-        <f>VLOOKUP(TEXT(G6,"ММММ"),Бюджет!$E$4:$F$15,2,FALSE)</f>
-        <v>484451</v>
+        <f>VLOOKUP(MONTH(G7),Бюджет!$D$4:$F$15,3,FALSE)</f>
+        <v>500001</v>
       </c>
     </row>
     <row r="11" spans="6:7" x14ac:dyDescent="0.25">
@@ -7168,8 +10114,8 @@
         <v>19</v>
       </c>
       <c r="G11" s="19">
-        <f>SUMIFS(Расход!G:G,Расход!F:F,"&gt;="&amp;Калькулятор!G7,Расход!F:F,"&lt;="&amp;Калькулятор!G6)</f>
-        <v>106778</v>
+        <f ca="1">SUMIFS(Расход!G:G,Расход!F:F,"&gt;="&amp;Калькулятор!G7,Расход!F:F,"&lt;="&amp;Калькулятор!G6)</f>
+        <v>336529</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
@@ -7177,8 +10123,8 @@
         <v>20</v>
       </c>
       <c r="G12" s="17">
-        <f>G11/G10</f>
-        <v>0.22041032013557615</v>
+        <f ca="1">G11/G10</f>
+        <v>0.67305665388669222</v>
       </c>
     </row>
   </sheetData>
